--- a/uploads/1_new_700.xlsx
+++ b/uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>1203</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/uploads/1_new_700.xlsx
+++ b/uploads/1_new_700.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
